--- a/Api_Testing_Re-Assure.xlsx
+++ b/Api_Testing_Re-Assure.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TechFour\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TechFour\Documents\GitHub\Test-Cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{873ADB78-5821-4220-896E-B0833C5C3E94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E00050D7-86DC-4A19-9967-6B37000EFCD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="11070" activeTab="1" xr2:uid="{63040020-34A1-4441-A285-0DBB376AAD8B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="11070" xr2:uid="{63040020-34A1-4441-A285-0DBB376AAD8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -917,9 +917,6 @@
     <t>Ajay kr./Lalit kr.</t>
   </si>
   <si>
-    <t>Testing of Mercedes-Benz</t>
-  </si>
-  <si>
     <t>Lead Dev. :-&gt;&gt;</t>
   </si>
   <si>
@@ -961,6 +958,9 @@
   </si>
   <si>
     <t>TC_50</t>
+  </si>
+  <si>
+    <t>Testing of Re-Assure</t>
   </si>
 </sst>
 </file>
@@ -1391,12 +1391,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1411,36 +1405,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1468,6 +1432,42 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1786,8 +1786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ACA4B08-F2AB-448A-8BB1-22C4D6E14AA4}">
   <dimension ref="E8:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="E9:I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="E9:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1801,73 +1801,73 @@
   <sheetData>
     <row r="8" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="32"/>
+    </row>
+    <row r="10" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E10" s="33" t="s">
         <v>249</v>
       </c>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="28"/>
-    </row>
-    <row r="10" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E10" s="29" t="s">
+      <c r="F10" s="34"/>
+      <c r="G10" s="35" t="s">
+        <v>256</v>
+      </c>
+      <c r="H10" s="35"/>
+      <c r="I10" s="36"/>
+    </row>
+    <row r="11" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E11" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="F11" s="22" t="s">
         <v>250</v>
       </c>
-      <c r="F10" s="30"/>
-      <c r="G10" s="31" t="s">
-        <v>257</v>
-      </c>
-      <c r="H10" s="31"/>
-      <c r="I10" s="32"/>
-    </row>
-    <row r="11" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E11" s="33" t="s">
-        <v>224</v>
-      </c>
-      <c r="F11" s="34" t="s">
+      <c r="G11" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="G11" s="34" t="s">
+      <c r="H11" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="H11" s="34" t="s">
+      <c r="I11" s="23" t="s">
         <v>253</v>
       </c>
-      <c r="I11" s="35" t="s">
+    </row>
+    <row r="12" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E12" s="24" t="s">
+        <v>255</v>
+      </c>
+      <c r="F12" s="25">
+        <v>50</v>
+      </c>
+      <c r="G12" s="25">
+        <v>50</v>
+      </c>
+      <c r="H12" s="25">
+        <v>48</v>
+      </c>
+      <c r="I12" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E13" s="27" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="12" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E12" s="36" t="s">
-        <v>256</v>
-      </c>
-      <c r="F12" s="37">
+      <c r="F13" s="28">
         <v>50</v>
       </c>
-      <c r="G12" s="37">
+      <c r="G13" s="28">
         <v>50</v>
       </c>
-      <c r="H12" s="37">
+      <c r="H13" s="28">
         <v>48</v>
       </c>
-      <c r="I12" s="38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="5:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E13" s="39" t="s">
-        <v>255</v>
-      </c>
-      <c r="F13" s="40">
-        <v>50</v>
-      </c>
-      <c r="G13" s="40">
-        <v>50</v>
-      </c>
-      <c r="H13" s="40">
-        <v>48</v>
-      </c>
-      <c r="I13" s="41">
+      <c r="I13" s="29">
         <v>2</v>
       </c>
     </row>
@@ -1885,7 +1885,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B9998FB-3CA3-4CB6-8585-028BA9D4DCA3}">
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H4" sqref="A1:P8"/>
     </sheetView>
   </sheetViews>
@@ -1907,24 +1907,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -1948,11 +1948,11 @@
       <c r="M2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="16" t="s">
+      <c r="N2" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
     </row>
     <row r="3" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -1976,11 +1976,11 @@
       <c r="M3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="23" t="s">
+      <c r="N3" s="39" t="s">
         <v>248</v>
       </c>
-      <c r="O3" s="24"/>
-      <c r="P3" s="25"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="41"/>
     </row>
     <row r="4" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
@@ -2033,202 +2033,202 @@
       </c>
     </row>
     <row r="5" spans="1:16" ht="135" x14ac:dyDescent="0.25">
-      <c r="A5" s="20">
+      <c r="A5" s="18">
         <v>10174</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="18" t="s">
         <v>208</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="H5" s="18" t="s">
         <v>207</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="I5" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="J5" s="20" t="s">
+      <c r="J5" s="18" t="s">
         <v>211</v>
       </c>
-      <c r="K5" s="20" t="s">
+      <c r="K5" s="18" t="s">
         <v>211</v>
       </c>
-      <c r="L5" s="20" t="s">
+      <c r="L5" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="M5" s="20" t="s">
+      <c r="M5" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="N5" s="20" t="s">
+      <c r="N5" s="18" t="s">
         <v>213</v>
       </c>
-      <c r="O5" s="20" t="s">
+      <c r="O5" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="P5" s="20" t="s">
+      <c r="P5" s="18" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="135" x14ac:dyDescent="0.25">
-      <c r="A6" s="20">
+      <c r="A6" s="18">
         <v>10174</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="18" t="s">
         <v>222</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="18" t="s">
         <v>223</v>
       </c>
-      <c r="I6" s="21" t="s">
+      <c r="I6" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="J6" s="20" t="s">
+      <c r="J6" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="K6" s="20" t="s">
+      <c r="K6" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="L6" s="20" t="s">
+      <c r="L6" s="18" t="s">
         <v>218</v>
       </c>
-      <c r="M6" s="20" t="s">
+      <c r="M6" s="18" t="s">
         <v>218</v>
       </c>
-      <c r="N6" s="20" t="s">
+      <c r="N6" s="18" t="s">
         <v>219</v>
       </c>
-      <c r="O6" s="20" t="s">
+      <c r="O6" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="P6" s="20" t="s">
+      <c r="P6" s="18" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="20">
+      <c r="A7" s="18">
         <v>10174</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="18" t="s">
         <v>208</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="H7" s="20" t="s">
-        <v>258</v>
-      </c>
-      <c r="I7" s="21" t="s">
+      <c r="H7" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="I7" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="J7" s="22" t="s">
+      <c r="J7" s="20" t="s">
         <v>232</v>
       </c>
-      <c r="K7" s="20" t="s">
+      <c r="K7" s="18" t="s">
         <v>237</v>
       </c>
-      <c r="L7" s="20" t="s">
+      <c r="L7" s="18" t="s">
         <v>233</v>
       </c>
-      <c r="M7" s="20" t="s">
+      <c r="M7" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="N7" s="20" t="s">
+      <c r="N7" s="18" t="s">
         <v>246</v>
       </c>
-      <c r="O7" s="20" t="s">
+      <c r="O7" s="18" t="s">
         <v>247</v>
       </c>
-      <c r="P7" s="20" t="s">
+      <c r="P7" s="18" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="135" x14ac:dyDescent="0.25">
-      <c r="A8" s="20">
+      <c r="A8" s="18">
         <v>10174</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="18" t="s">
         <v>208</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="H8" s="20" t="s">
+      <c r="H8" s="18" t="s">
         <v>207</v>
       </c>
-      <c r="I8" s="21" t="s">
+      <c r="I8" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="J8" s="20" t="s">
+      <c r="J8" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="K8" s="20" t="s">
+      <c r="K8" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="L8" s="20" t="s">
+      <c r="L8" s="18" t="s">
         <v>235</v>
       </c>
-      <c r="M8" s="20" t="s">
+      <c r="M8" s="18" t="s">
         <v>212</v>
       </c>
-      <c r="N8" s="20" t="s">
+      <c r="N8" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="O8" s="20" t="s">
+      <c r="O8" s="18" t="s">
         <v>242</v>
       </c>
-      <c r="P8" s="20" t="s">
+      <c r="P8" s="18" t="s">
         <v>239</v>
       </c>
     </row>
@@ -2268,20 +2268,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -2301,11 +2301,11 @@
       <c r="I2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -2328,8 +2328,8 @@
       <c r="J3" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -2343,15 +2343,15 @@
       <c r="E4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="16" t="s">
         <v>202</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="7"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
     </row>
     <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
@@ -3978,7 +3978,7 @@
         <v>10174</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>21</v>
@@ -4014,7 +4014,7 @@
         <v>10174</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>21</v>
@@ -4050,7 +4050,7 @@
         <v>10174</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>21</v>
@@ -4088,7 +4088,7 @@
         <v>10174</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>21</v>

--- a/Api_Testing_Re-Assure.xlsx
+++ b/Api_Testing_Re-Assure.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TechFour\Documents\GitHub\Test-Cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E00050D7-86DC-4A19-9967-6B37000EFCD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD1F3FE-378B-45B6-9ACE-5D8D7F882B57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="11070" xr2:uid="{63040020-34A1-4441-A285-0DBB376AAD8B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11310" firstSheet="1" activeTab="1" xr2:uid="{63040020-34A1-4441-A285-0DBB376AAD8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -1344,7 +1344,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1432,6 +1432,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1786,7 +1789,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ACA4B08-F2AB-448A-8BB1-22C4D6E14AA4}">
   <dimension ref="E8:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="E9:I13"/>
     </sheetView>
   </sheetViews>
@@ -1801,24 +1804,24 @@
   <sheetData>
     <row r="8" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="31" t="s">
         <v>262</v>
       </c>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="33"/>
     </row>
     <row r="10" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E10" s="33" t="s">
+      <c r="E10" s="34" t="s">
         <v>249</v>
       </c>
-      <c r="F10" s="34"/>
-      <c r="G10" s="35" t="s">
+      <c r="F10" s="35"/>
+      <c r="G10" s="36" t="s">
         <v>256</v>
       </c>
-      <c r="H10" s="35"/>
-      <c r="I10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="37"/>
     </row>
     <row r="11" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E11" s="21" t="s">
@@ -1885,8 +1888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B9998FB-3CA3-4CB6-8585-028BA9D4DCA3}">
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H4" sqref="A1:P8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1907,24 +1910,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -1948,11 +1951,11 @@
       <c r="M2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="38" t="s">
+      <c r="N2" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
     </row>
     <row r="3" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -1976,11 +1979,11 @@
       <c r="M3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="39" t="s">
+      <c r="N3" s="40" t="s">
         <v>248</v>
       </c>
-      <c r="O3" s="40"/>
-      <c r="P3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="42"/>
     </row>
     <row r="4" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
@@ -2169,7 +2172,7 @@
       <c r="L7" s="18" t="s">
         <v>233</v>
       </c>
-      <c r="M7" s="18" t="s">
+      <c r="M7" s="30" t="s">
         <v>238</v>
       </c>
       <c r="N7" s="18" t="s">
@@ -2219,7 +2222,7 @@
       <c r="L8" s="18" t="s">
         <v>235</v>
       </c>
-      <c r="M8" s="18" t="s">
+      <c r="M8" s="30" t="s">
         <v>212</v>
       </c>
       <c r="N8" s="18" t="s">
@@ -2247,7 +2250,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC7CB800-991D-4811-B640-3C536A6B8470}">
   <dimension ref="A1:L127"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="B6" sqref="A1:L51"/>
     </sheetView>
   </sheetViews>
@@ -2268,20 +2271,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -2301,11 +2304,11 @@
       <c r="I2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="38" t="s">
+      <c r="J2" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -2328,8 +2331,8 @@
       <c r="J3" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -2350,8 +2353,8 @@
       <c r="H4" s="9"/>
       <c r="I4" s="7"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
     </row>
     <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">

--- a/Api_Testing_Re-Assure.xlsx
+++ b/Api_Testing_Re-Assure.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TechFour\Documents\GitHub\Test-Cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD1F3FE-378B-45B6-9ACE-5D8D7F882B57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D0729B-F84C-437D-96A9-0E42B045D8F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11310" firstSheet="1" activeTab="1" xr2:uid="{63040020-34A1-4441-A285-0DBB376AAD8B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="11070" activeTab="3" xr2:uid="{63040020-34A1-4441-A285-0DBB376AAD8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
     <sheet name="Error_Handelling" sheetId="3" r:id="rId2"/>
     <sheet name="claim_create_api" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">claim_create_api!$E$5:$E$9</definedName>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="271">
   <si>
     <t>Created By:-</t>
   </si>
@@ -962,6 +963,30 @@
   <si>
     <t>Testing of Re-Assure</t>
   </si>
+  <si>
+    <t>Single value</t>
+  </si>
+  <si>
+    <t>Multiple</t>
+  </si>
+  <si>
+    <t>Single</t>
+  </si>
+  <si>
+    <t>Null</t>
+  </si>
+  <si>
+    <t>Null / Multiple</t>
+  </si>
+  <si>
+    <t>"Cashless" /"Reimbursement"</t>
+  </si>
+  <si>
+    <t>Free text</t>
+  </si>
+  <si>
+    <t>Project Name :- Re-Assure</t>
+  </si>
 </sst>
 </file>
 
@@ -971,7 +996,7 @@
     <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1042,8 +1067,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF444444"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF444444"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1086,8 +1131,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1339,12 +1390,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFE1E1E1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFE1E1E1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFE1E1E1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFE1E1E1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFE1E1E1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFE1E1E1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1436,6 +1513,9 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1471,6 +1551,64 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1804,24 +1942,24 @@
   <sheetData>
     <row r="8" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="32" t="s">
         <v>262</v>
       </c>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="34"/>
     </row>
     <row r="10" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E10" s="34" t="s">
+      <c r="E10" s="35" t="s">
         <v>249</v>
       </c>
-      <c r="F10" s="35"/>
-      <c r="G10" s="36" t="s">
+      <c r="F10" s="36"/>
+      <c r="G10" s="37" t="s">
         <v>256</v>
       </c>
-      <c r="H10" s="36"/>
-      <c r="I10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="38"/>
     </row>
     <row r="11" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E11" s="21" t="s">
@@ -1888,7 +2026,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B9998FB-3CA3-4CB6-8585-028BA9D4DCA3}">
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
@@ -1910,24 +2048,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -1951,11 +2089,11 @@
       <c r="M2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="39" t="s">
+      <c r="N2" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
     </row>
     <row r="3" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -1979,11 +2117,11 @@
       <c r="M3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="40" t="s">
+      <c r="N3" s="41" t="s">
         <v>248</v>
       </c>
-      <c r="O3" s="41"/>
-      <c r="P3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="43"/>
     </row>
     <row r="4" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
@@ -2250,8 +2388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC7CB800-991D-4811-B640-3C536A6B8470}">
   <dimension ref="A1:L127"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B6" sqref="A1:L51"/>
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6:H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2271,20 +2409,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -2304,11 +2442,11 @@
       <c r="I2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="39" t="s">
+      <c r="J2" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -2331,8 +2469,8 @@
       <c r="J3" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -2353,8 +2491,8 @@
       <c r="H4" s="9"/>
       <c r="I4" s="7"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
     </row>
     <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
@@ -5194,4 +5332,1534 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAB3799D-03DF-4547-BF86-F41B96DB4D38}">
+  <dimension ref="A1:O57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="63" t="s">
+        <v>270</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="45"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="47"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="48">
+        <v>43887</v>
+      </c>
+      <c r="C3" s="48"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="45" t="s">
+        <v>248</v>
+      </c>
+      <c r="L3" s="45"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>201</v>
+      </c>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="49" t="s">
+        <v>202</v>
+      </c>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="45"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="51" t="s">
+        <v>150</v>
+      </c>
+      <c r="H5" s="51" t="s">
+        <v>136</v>
+      </c>
+      <c r="I5" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="51" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="45"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="H6" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+    </row>
+    <row r="7" spans="1:15" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="45"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="H7" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="J7" s="45"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="53"/>
+      <c r="O7" s="53"/>
+    </row>
+    <row r="8" spans="1:15" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="45"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="H8" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="J8" s="45"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="60"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="53"/>
+    </row>
+    <row r="9" spans="1:15" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="45"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="H9" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="J9" s="45"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="53"/>
+    </row>
+    <row r="10" spans="1:15" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="45"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="H10" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="J10" s="45"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="53"/>
+    </row>
+    <row r="11" spans="1:15" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="45"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="H11" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="J11" s="45"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="53"/>
+    </row>
+    <row r="12" spans="1:15" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="45"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="H12" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="J12" s="45"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="53"/>
+    </row>
+    <row r="13" spans="1:15" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="45"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="G13" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="H13" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="J13" s="45"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="57"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="53"/>
+    </row>
+    <row r="14" spans="1:15" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="45"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="G14" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="H14" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="J14" s="45"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="53"/>
+    </row>
+    <row r="15" spans="1:15" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="45"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="G15" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="H15" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="J15" s="45"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="53"/>
+    </row>
+    <row r="16" spans="1:15" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="45"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="H16" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="J16" s="45"/>
+      <c r="K16" s="61"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="53"/>
+    </row>
+    <row r="17" spans="1:15" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="45"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="G17" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="H17" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="J17" s="45"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="53"/>
+    </row>
+    <row r="18" spans="1:15" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="45"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="G18" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="H18" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="J18" s="45"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="57"/>
+      <c r="N18" s="54"/>
+      <c r="O18" s="53"/>
+    </row>
+    <row r="19" spans="1:15" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="45"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="G19" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="H19" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="J19" s="45"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="57"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="53"/>
+    </row>
+    <row r="20" spans="1:15" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="45"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="G20" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="H20" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="J20" s="45"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="57"/>
+      <c r="N20" s="54"/>
+      <c r="O20" s="53"/>
+    </row>
+    <row r="21" spans="1:15" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="45"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="G21" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="H21" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="J21" s="45"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="57"/>
+      <c r="N21" s="54"/>
+      <c r="O21" s="53"/>
+    </row>
+    <row r="22" spans="1:15" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="45"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="G22" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="H22" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="J22" s="45"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="57"/>
+      <c r="N22" s="54"/>
+      <c r="O22" s="53"/>
+    </row>
+    <row r="23" spans="1:15" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="45"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="G23" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="H23" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="J23" s="45"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="57"/>
+      <c r="N23" s="54"/>
+      <c r="O23" s="53"/>
+    </row>
+    <row r="24" spans="1:15" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="45"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="F24" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="G24" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="H24" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="J24" s="45"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="57"/>
+      <c r="N24" s="54"/>
+      <c r="O24" s="53"/>
+    </row>
+    <row r="25" spans="1:15" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="45"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="F25" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="G25" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="H25" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="J25" s="45"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="57"/>
+      <c r="N25" s="54"/>
+      <c r="O25" s="53"/>
+    </row>
+    <row r="26" spans="1:15" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="45"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="F26" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="G26" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="H26" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="J26" s="45"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="57"/>
+      <c r="N26" s="54"/>
+      <c r="O26" s="53"/>
+    </row>
+    <row r="27" spans="1:15" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="45"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="H27" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="J27" s="45"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="57"/>
+      <c r="N27" s="54"/>
+      <c r="O27" s="53"/>
+    </row>
+    <row r="28" spans="1:15" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="45"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="H28" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="I28" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="J28" s="45"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="57"/>
+      <c r="N28" s="54"/>
+      <c r="O28" s="53"/>
+    </row>
+    <row r="29" spans="1:15" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="45"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="H29" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="I29" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="J29" s="45"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="57"/>
+      <c r="N29" s="54"/>
+      <c r="O29" s="53"/>
+    </row>
+    <row r="30" spans="1:15" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="45"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="H30" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="I30" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="J30" s="45"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="57"/>
+      <c r="N30" s="54"/>
+      <c r="O30" s="53"/>
+    </row>
+    <row r="31" spans="1:15" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="45"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="H31" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="I31" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="J31" s="45"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="57"/>
+      <c r="N31" s="54"/>
+      <c r="O31" s="53"/>
+    </row>
+    <row r="32" spans="1:15" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="45"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="H32" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="I32" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="J32" s="45"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="57"/>
+      <c r="N32" s="54"/>
+      <c r="O32" s="53"/>
+    </row>
+    <row r="33" spans="1:15" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="45"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="H33" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="I33" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="J33" s="45"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="57"/>
+      <c r="N33" s="54"/>
+      <c r="O33" s="53"/>
+    </row>
+    <row r="34" spans="1:15" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="45"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="H34" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="I34" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="J34" s="45"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="57"/>
+      <c r="N34" s="54"/>
+      <c r="O34" s="53"/>
+    </row>
+    <row r="35" spans="1:15" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="45"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="H35" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="I35" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="J35" s="45"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="57"/>
+      <c r="N35" s="54"/>
+      <c r="O35" s="53"/>
+    </row>
+    <row r="36" spans="1:15" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="45"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="H36" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="I36" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="J36" s="45"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="57"/>
+      <c r="N36" s="54"/>
+      <c r="O36" s="53"/>
+    </row>
+    <row r="37" spans="1:15" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="45"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="H37" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="I37" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="J37" s="45"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="57"/>
+      <c r="N37" s="54"/>
+      <c r="O37" s="53"/>
+    </row>
+    <row r="38" spans="1:15" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="45"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="H38" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="I38" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="J38" s="45"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="57"/>
+      <c r="N38" s="54"/>
+      <c r="O38" s="53"/>
+    </row>
+    <row r="39" spans="1:15" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="45"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="H39" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="I39" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="J39" s="45"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="57"/>
+      <c r="N39" s="54"/>
+      <c r="O39" s="53"/>
+    </row>
+    <row r="40" spans="1:15" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="45"/>
+      <c r="B40" s="45"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="H40" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="I40" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="J40" s="45"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="57"/>
+      <c r="N40" s="54"/>
+      <c r="O40" s="53"/>
+    </row>
+    <row r="41" spans="1:15" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="45"/>
+      <c r="B41" s="45"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="H41" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="I41" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="J41" s="45"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="57"/>
+      <c r="N41" s="54"/>
+      <c r="O41" s="53"/>
+    </row>
+    <row r="42" spans="1:15" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="45"/>
+      <c r="B42" s="45"/>
+      <c r="C42" s="45"/>
+      <c r="D42" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="H42" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="I42" s="62" t="s">
+        <v>265</v>
+      </c>
+      <c r="J42" s="45"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="57"/>
+      <c r="N42" s="54"/>
+      <c r="O42" s="53"/>
+    </row>
+    <row r="43" spans="1:15" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="45"/>
+      <c r="B43" s="45"/>
+      <c r="C43" s="45"/>
+      <c r="D43" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="H43" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="I43" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="J43" s="45"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="17"/>
+      <c r="M43" s="57"/>
+      <c r="N43" s="54"/>
+      <c r="O43" s="53"/>
+    </row>
+    <row r="44" spans="1:15" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="45"/>
+      <c r="B44" s="45"/>
+      <c r="C44" s="45"/>
+      <c r="D44" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E44" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="H44" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="I44" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="J44" s="45"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="17"/>
+      <c r="M44" s="57"/>
+      <c r="N44" s="54"/>
+      <c r="O44" s="53"/>
+    </row>
+    <row r="45" spans="1:15" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="45"/>
+      <c r="B45" s="45"/>
+      <c r="C45" s="45"/>
+      <c r="D45" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E45" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="H45" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="I45" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="J45" s="45"/>
+      <c r="K45" s="17"/>
+      <c r="L45" s="17"/>
+      <c r="M45" s="56"/>
+      <c r="N45" s="54"/>
+      <c r="O45" s="53"/>
+    </row>
+    <row r="46" spans="1:15" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="45"/>
+      <c r="B46" s="45"/>
+      <c r="C46" s="45"/>
+      <c r="D46" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E46" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="G46" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="H46" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="I46" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="J46" s="45"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="17"/>
+      <c r="M46" s="57"/>
+      <c r="N46" s="54"/>
+      <c r="O46" s="53"/>
+    </row>
+    <row r="47" spans="1:15" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="45"/>
+      <c r="B47" s="45"/>
+      <c r="C47" s="45"/>
+      <c r="D47" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E47" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="G47" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="H47" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="I47" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="J47" s="45"/>
+      <c r="K47" s="17"/>
+      <c r="L47" s="17"/>
+      <c r="M47" s="57"/>
+      <c r="N47" s="54"/>
+      <c r="O47" s="53"/>
+    </row>
+    <row r="48" spans="1:15" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="45"/>
+      <c r="B48" s="45"/>
+      <c r="C48" s="45"/>
+      <c r="D48" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E48" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="G48" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="H48" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="I48" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="J48" s="45"/>
+      <c r="K48" s="17"/>
+      <c r="L48" s="17"/>
+      <c r="M48" s="57"/>
+      <c r="N48" s="55"/>
+      <c r="O48" s="53"/>
+    </row>
+    <row r="49" spans="1:15" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="45"/>
+      <c r="B49" s="45"/>
+      <c r="C49" s="45"/>
+      <c r="D49" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E49" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="G49" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="H49" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="I49" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="J49" s="45"/>
+      <c r="K49" s="17"/>
+      <c r="L49" s="17"/>
+      <c r="M49" s="57"/>
+      <c r="N49" s="54"/>
+      <c r="O49" s="53"/>
+    </row>
+    <row r="50" spans="1:15" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="45"/>
+      <c r="B50" s="45"/>
+      <c r="C50" s="45"/>
+      <c r="D50" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E50" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="G50" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="H50" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="I50" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="J50" s="45"/>
+      <c r="K50" s="17"/>
+      <c r="L50" s="17"/>
+      <c r="M50" s="57"/>
+      <c r="N50" s="54"/>
+      <c r="O50" s="53"/>
+    </row>
+    <row r="51" spans="1:15" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="45"/>
+      <c r="B51" s="45"/>
+      <c r="C51" s="45"/>
+      <c r="D51" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E51" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="G51" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="H51" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="I51" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="J51" s="45"/>
+      <c r="K51" s="17"/>
+      <c r="L51" s="17"/>
+      <c r="M51" s="57"/>
+      <c r="N51" s="54"/>
+      <c r="O51" s="53"/>
+    </row>
+    <row r="52" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K52" s="58"/>
+      <c r="L52" s="58"/>
+      <c r="M52" s="54"/>
+      <c r="N52" s="54"/>
+      <c r="O52" s="53"/>
+    </row>
+    <row r="53" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K53" s="54"/>
+      <c r="L53" s="54"/>
+      <c r="M53" s="54"/>
+      <c r="N53" s="55"/>
+      <c r="O53" s="53"/>
+    </row>
+    <row r="54" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K54" s="54"/>
+      <c r="L54" s="54"/>
+      <c r="M54" s="55"/>
+      <c r="N54" s="55"/>
+      <c r="O54" s="53"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K55" s="53"/>
+      <c r="L55" s="53"/>
+      <c r="M55" s="53"/>
+      <c r="N55" s="53"/>
+      <c r="O55" s="53"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K56" s="53"/>
+      <c r="L56" s="53"/>
+      <c r="M56" s="53"/>
+      <c r="N56" s="53"/>
+      <c r="O56" s="53"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K57" s="53"/>
+      <c r="L57" s="53"/>
+      <c r="M57" s="53"/>
+      <c r="N57" s="53"/>
+      <c r="O57" s="53"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="K2:L2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>